--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="72">
   <si>
     <t>capsule</t>
   </si>
@@ -66,10 +66,13 @@
     <t>srm_two_stream</t>
   </si>
   <si>
+    <t>X 61</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>X</t>
+    <t>X 8</t>
   </si>
   <si>
     <t>ff_all</t>
@@ -247,7 +250,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +261,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -434,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -452,10 +461,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -463,6 +472,21 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -472,30 +496,9 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -511,58 +514,58 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
@@ -890,1017 +893,1021 @@
   </sheetPr>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="47" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="48" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="49" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="49" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="49" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="49" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="49" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="49" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="50" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="50" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="50" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="50" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="50" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="50" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="50" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="50" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="45" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="46" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="47" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="47" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="48" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="48" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="48" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="48" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="48" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="48" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="48" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="48" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="28" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="30" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="32" t="s">
+      <c r="L3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="35" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="35" t="s">
+      <c r="F4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="35" t="s">
+      <c r="H4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="30" t="s">
+      <c r="J4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="30" t="s">
+      <c r="L4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="R4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="35">
+      <c r="C5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="33">
         <v>331876</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="33">
         <v>582561</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>50000</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="33">
         <v>50000</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="33">
         <v>58659</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="35">
         <v>59003</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="28">
         <v>111746</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="36">
         <v>195252</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="28">
         <v>1500</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="36">
         <v>1132090</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="30">
+      <c r="O5" s="28"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="28">
         <v>440526</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="36">
         <v>691564</v>
       </c>
-      <c r="S5" s="31"/>
-      <c r="T5" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="S5" s="29"/>
+      <c r="T5" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>81512</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>81470</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>20000</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="33">
         <v>20000</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>25378</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <v>25368</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="38">
+      <c r="K6" s="28"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="36">
         <v>253728</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="30">
+      <c r="O6" s="28"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="28">
         <v>126890</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="36">
         <v>126838</v>
       </c>
-      <c r="S6" s="31"/>
-      <c r="T6" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="S6" s="29"/>
+      <c r="T6" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="35">
+        <v>29</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="33">
         <v>81512</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>81508</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="33">
         <v>20000</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="33">
         <v>20000</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="33">
         <v>25378</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="33">
         <v>25378</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="38">
+      <c r="K7" s="28"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="36">
         <v>253776</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="30">
+      <c r="O7" s="28"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="28">
         <v>126890</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="36">
         <v>126886</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="S7" s="29"/>
+      <c r="T7" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="35">
+        <v>29</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="33">
         <v>81512</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>60916</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="33">
         <v>20000</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="33">
         <v>20000</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="33">
         <v>25378</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="39">
         <v>20229</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="38">
+      <c r="K8" s="28"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="36">
         <v>228035</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="30">
+      <c r="O8" s="28"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="28">
         <v>126890</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="36">
         <v>101145</v>
       </c>
-      <c r="S8" s="31"/>
-      <c r="T8" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="21">
+      <c r="S8" s="29"/>
+      <c r="T8" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="19">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="35">
+        <v>29</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="33">
         <v>81512</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>60912</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="33">
         <v>20000</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="33">
         <v>20000</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="33">
         <v>25378</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="39">
         <v>20229</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38">
+      <c r="K9" s="28"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36">
         <v>228035</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="36">
         <v>582904</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38">
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36">
         <v>126890</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="36">
         <v>101145</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="S9" s="29"/>
+      <c r="T9" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="35">
+        <v>29</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="33">
         <v>81512</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>284806</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="33">
         <v>20000</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="33">
         <v>80000</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="33">
         <v>25378</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>91204</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28">
+        <v>2000</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="35">
+        <v>29</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="33">
         <v>107231</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>671285</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="33">
         <v>25000</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="33">
         <v>30000</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="33">
         <v>38702</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="35">
         <v>41739</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33">
         <v>107231</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <v>235421</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="28">
         <v>1500</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="36">
         <v>910956</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="30">
+      <c r="O11" s="28"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="28">
         <v>170933</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R11" s="36">
         <v>740023</v>
       </c>
-      <c r="S11" s="31"/>
-      <c r="T11" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="S11" s="29"/>
+      <c r="T11" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="38">
+      <c r="C12" s="30"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="36">
         <v>507560</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="36">
         <v>456014</v>
       </c>
-      <c r="S12" s="31"/>
-      <c r="T12" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="S12" s="29"/>
+      <c r="T12" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35">
+      <c r="C13" s="30"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33">
         <v>284810</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="38">
+      <c r="C14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="36">
         <v>56817</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <v>470087</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="36">
         <v>15000</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>25000</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="36">
         <v>17508</v>
       </c>
-      <c r="J14" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="30">
+      <c r="J14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="28">
         <v>56817</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="28">
         <v>158454</v>
       </c>
-      <c r="M14" s="30">
-        <v>10</v>
-      </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="38">
+      <c r="M14" s="28">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="36">
         <v>89325</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="36">
         <v>526942</v>
       </c>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="38">
+        <v>39</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="36">
         <v>7374</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="36">
         <v>7358</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="36">
         <v>2000</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="36">
         <v>2000</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="36">
         <v>7905</v>
       </c>
-      <c r="J15" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="38">
+      <c r="J15" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28">
+        <v>80</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" s="36">
         <v>17279</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="36">
         <v>16944</v>
       </c>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="21">
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="38">
+        <v>39</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="36">
         <v>56584</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="36">
         <v>23994</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="36">
         <v>10000</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>5000</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="36">
         <v>10462</v>
       </c>
-      <c r="J16" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="30" t="s">
+      <c r="J16" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="38">
+      <c r="K16" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="36">
         <v>77046</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="36">
         <v>34014</v>
       </c>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="21">
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="19">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="38">
+      <c r="C17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="36">
         <v>58968</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="36">
         <v>58968</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="36">
         <v>20000</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="36">
         <v>20000</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="36">
         <v>39561</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="36">
         <v>39561</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="19">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="R19" s="25"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="23"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="19">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="25" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="K20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="L20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="M20" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="N20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="25" t="s">
+      <c r="O20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="P20" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="25"/>
+      <c r="Q20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="23"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="19">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="F23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="19">
       <c r="A24" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="19">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="24" t="s">
+      <c r="D25" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="E25" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="H25" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
+      <c r="I25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="19">
       <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="D26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="E26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="H26" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
+      <c r="I26" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
@@ -1929,25 +1936,25 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="19" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="17.862142857142857" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="18" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -1957,39 +1964,39 @@
       <c r="G1" s="5"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -2015,11 +2022,11 @@
       <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -2045,11 +2052,11 @@
       <c r="I4" s="4">
         <v>0.97</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -2075,11 +2082,11 @@
       <c r="I5" s="5">
         <v>0.85</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -2103,7 +2110,7 @@
       <c r="I6" s="5">
         <v>0.82</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
@@ -2117,7 +2124,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
@@ -2133,7 +2140,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
@@ -2147,11 +2154,11 @@
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="40.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
@@ -2175,12 +2182,10 @@
       <c r="I10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -2207,7 +2212,7 @@
       <c r="I11" s="11">
         <v>0.95</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>0.95</v>
       </c>
       <c r="K11" s="10"/>
@@ -2219,32 +2224,30 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="J12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -2253,94 +2256,90 @@
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="J13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>16</v>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="83">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -39,18 +39,6 @@
     <t>Deep_fake_in_the_wild</t>
   </si>
   <si>
-    <t>2777/132382</t>
-  </si>
-  <si>
-    <t>2784/212823</t>
-  </si>
-  <si>
-    <t>632/29364</t>
-  </si>
-  <si>
-    <t>315/32429</t>
-  </si>
-  <si>
     <t>396/58659</t>
   </si>
   <si>
@@ -78,18 +66,6 @@
     <t>DFDC</t>
   </si>
   <si>
-    <t>14817/107177</t>
-  </si>
-  <si>
-    <t>79496/235441</t>
-  </si>
-  <si>
-    <t>2801/25054</t>
-  </si>
-  <si>
-    <t>8985/29980</t>
-  </si>
-  <si>
     <t>4328/38702</t>
   </si>
   <si>
@@ -97,18 +73,6 @@
   </si>
   <si>
     <t>Celeb-DF</t>
-  </si>
-  <si>
-    <t>563/57014</t>
-  </si>
-  <si>
-    <t>4577/158680</t>
-  </si>
-  <si>
-    <t>148/14803</t>
-  </si>
-  <si>
-    <t>722/24774</t>
   </si>
   <si>
     <t>178/17508</t>
@@ -1031,13 +995,13 @@
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="23" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
@@ -1046,7 +1010,7 @@
       <c r="R3" s="23"/>
       <c r="S3" s="24"/>
       <c r="T3" s="25" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="14">
@@ -1094,7 +1058,7 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>6</v>
@@ -1140,19 +1104,19 @@
       </c>
       <c r="S5" s="24"/>
       <c r="T5" s="25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="28">
         <v>81512</v>
@@ -1188,17 +1152,17 @@
       </c>
       <c r="S6" s="24"/>
       <c r="T6" s="25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="28">
         <v>81512</v>
@@ -1234,17 +1198,17 @@
       </c>
       <c r="S7" s="24"/>
       <c r="T7" s="25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="28">
         <v>81512</v>
@@ -1280,17 +1244,17 @@
       </c>
       <c r="S8" s="24"/>
       <c r="T8" s="25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="14">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" s="28">
         <v>81512</v>
@@ -1328,17 +1292,17 @@
       </c>
       <c r="S9" s="24"/>
       <c r="T9" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="28">
         <v>81512</v>
@@ -1374,10 +1338,10 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="28">
@@ -1420,7 +1384,7 @@
       </c>
       <c r="S11" s="24"/>
       <c r="T11" s="25" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="14">
@@ -1476,10 +1440,10 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="31">
@@ -1498,7 +1462,7 @@
         <v>17508</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K14" s="23">
         <v>56817</v>
@@ -1524,10 +1488,10 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="31">
@@ -1546,7 +1510,7 @@
         <v>7905</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
@@ -1568,10 +1532,10 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="31">
@@ -1590,10 +1554,10 @@
         <v>10462</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
@@ -1613,7 +1577,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="31">
@@ -1685,7 +1649,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="R19" s="18"/>
       <c r="S19" s="4"/>
@@ -1702,28 +1666,28 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="R20" s="18"/>
       <c r="S20" s="4"/>
@@ -1732,28 +1696,28 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
@@ -1769,31 +1733,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="18"/>
@@ -1809,25 +1773,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -1845,25 +1809,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="14">
       <c r="A24" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -1881,31 +1845,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="14">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
@@ -1921,31 +1885,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="14">
       <c r="A26" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="H26" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="18"/>
@@ -2020,25 +1984,25 @@
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="4"/>
@@ -2047,7 +2011,7 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5">
         <v>0.9</v>
@@ -2056,19 +2020,19 @@
         <v>0.82</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F3" s="5">
         <v>0.95</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="4"/>
@@ -2077,7 +2041,7 @@
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5">
         <v>0.81</v>
@@ -2092,7 +2056,7 @@
         <v>0.97</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H4" s="5">
         <v>0.97</v>
@@ -2107,13 +2071,13 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6">
         <v>0.7</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6">
         <v>0.82</v>
@@ -2137,7 +2101,7 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
@@ -2178,7 +2142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2210,28 +2174,28 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2239,7 +2203,7 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5">
         <v>0.9</v>
@@ -2269,29 +2233,29 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2299,29 +2263,29 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2329,29 +2293,29 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2359,29 +2323,29 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2492,23 +2456,23 @@
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2">
+        <v>132724</v>
+      </c>
+      <c r="E4" s="2">
+        <v>213730</v>
+      </c>
+      <c r="F4" s="2">
+        <v>29022</v>
+      </c>
+      <c r="G4" s="2">
+        <v>31522</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2519,10 +2483,10 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>81512</v>
@@ -2552,7 +2516,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
         <v>81512</v>
@@ -2582,7 +2546,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>81512</v>
@@ -2612,7 +2576,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>81512</v>
@@ -2642,7 +2606,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>81512</v>
@@ -2671,26 +2635,26 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
+      <c r="D10" s="2">
+        <v>104177</v>
+      </c>
+      <c r="E10" s="2">
+        <v>232441</v>
+      </c>
+      <c r="F10" s="2">
+        <v>28054</v>
+      </c>
+      <c r="G10" s="2">
+        <v>41739</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2733,26 +2697,26 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>30</v>
+      <c r="D13" s="2">
+        <v>54014</v>
+      </c>
+      <c r="E13" s="2">
+        <v>155680</v>
+      </c>
+      <c r="F13" s="2">
+        <v>17803</v>
+      </c>
+      <c r="G13" s="2">
+        <v>27774</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2763,26 +2727,26 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="136">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -337,6 +337,34 @@
   <si>
     <t xml:space="preserve">
 Train XXXX 8</t>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
+    <t>swinvit</t>
+  </si>
+  <si>
+    <t>m2tr</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dual-cma-
+cnn-attn</t>
+  </si>
+  <si>
+    <t>dual-cma-cnn-transformer</t>
+  </si>
+  <si>
+    <t>dual-patch-cma-cnn-vit</t>
+  </si>
+  <si>
+    <t>dual-cma-cnn-vit</t>
+  </si>
+  <si>
+    <t>dual-cnn-vit</t>
   </si>
   <si>
     <t>Delete</t>
@@ -472,7 +500,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +511,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -659,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -689,6 +723,42 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -730,58 +800,58 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
@@ -1110,693 +1180,693 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="45" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="46" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="47" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="47" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="47" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="47" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="47" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="47" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="23" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="58" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="59" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="59" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="59" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="59" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="59" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="59" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="25" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="25" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="25" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="25" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="25" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="J3" s="39"/>
+      <c r="K3" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28" t="s">
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="33">
+      <c r="D5" s="39"/>
+      <c r="E5" s="45">
         <v>331876</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="45">
         <v>582561</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="45">
         <v>50000</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="45">
         <v>50000</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="45">
         <v>58659</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="47">
         <v>59003</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="40">
         <v>111746</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="48">
         <v>195252</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="40">
         <v>1500</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="48">
         <v>1132090</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="28">
+      <c r="O5" s="40"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="40">
         <v>440526</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="48">
         <v>691564</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="T5" s="30" t="s">
+      <c r="S5" s="41"/>
+      <c r="T5" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="45">
         <v>81512</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="45">
         <v>81470</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="45">
         <v>20000</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="45">
         <v>20000</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="45">
         <v>25378</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="45">
         <v>25368</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="36">
+      <c r="K6" s="40"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="48">
         <v>253728</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="28">
+      <c r="O6" s="40"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="40">
         <v>126890</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="48">
         <v>126838</v>
       </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="30" t="s">
+      <c r="S6" s="41"/>
+      <c r="T6" s="42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="45">
         <v>81512</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="45">
         <v>81508</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="45">
         <v>20000</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="45">
         <v>20000</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="45">
         <v>25378</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="45">
         <v>25378</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="36">
+      <c r="K7" s="40"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="48">
         <v>253776</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="28">
+      <c r="O7" s="40"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="40">
         <v>126890</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R7" s="48">
         <v>126886</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30" t="s">
+      <c r="S7" s="41"/>
+      <c r="T7" s="42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="45">
         <v>81512</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="45">
         <v>60916</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="45">
         <v>20000</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="45">
         <v>20000</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="45">
         <v>25378</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="51">
         <v>20229</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="36">
+      <c r="K8" s="40"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="48">
         <v>228035</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="28">
+      <c r="O8" s="40"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="40">
         <v>126890</v>
       </c>
-      <c r="R8" s="36">
+      <c r="R8" s="48">
         <v>101145</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30" t="s">
+      <c r="S8" s="41"/>
+      <c r="T8" s="42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="32">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="45">
         <v>81512</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="45">
         <v>60912</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="45">
         <v>20000</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="45">
         <v>20000</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="45">
         <v>25378</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="51">
         <v>20229</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36">
+      <c r="K9" s="40"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48">
         <v>228035</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="48">
         <v>582904</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36">
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48">
         <v>126890</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="48">
         <v>101145</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30" t="s">
+      <c r="S9" s="41"/>
+      <c r="T9" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="45">
         <v>81512</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="45">
         <v>284806</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="45">
         <v>20000</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="45">
         <v>80000</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="45">
         <v>25378</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="45">
         <v>91204</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28">
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40">
         <v>2000</v>
       </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="33">
+      <c r="D11" s="39"/>
+      <c r="E11" s="45">
         <v>107231</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="45">
         <v>671285</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="45">
         <v>25000</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="45">
         <v>30000</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="45">
         <v>38702</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="47">
         <v>41739</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="45">
         <v>107231</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="48">
         <v>235421</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="40">
         <v>1500</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="48">
         <v>910956</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="28">
+      <c r="O11" s="40"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="40">
         <v>170933</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="48">
         <v>740023</v>
       </c>
-      <c r="S11" s="29"/>
-      <c r="T11" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="S11" s="41"/>
+      <c r="T11" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="36">
+      <c r="C12" s="42"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="48">
         <v>507560</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="48">
         <v>456014</v>
       </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="S12" s="41"/>
+      <c r="T12" s="42"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33">
+      <c r="C13" s="42"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45">
         <v>284810</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="42"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="36">
+      <c r="D14" s="39"/>
+      <c r="E14" s="48">
         <v>56817</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="48">
         <v>470087</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="48">
         <v>15000</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="48">
         <v>25000</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="48">
         <v>17508</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="28">
+      <c r="J14" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="40">
         <v>56817</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="40">
         <v>158454</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="40">
         <v>1000</v>
       </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="36">
+      <c r="N14" s="40"/>
+      <c r="O14" s="48">
         <v>89325</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="48">
         <v>526942</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="42"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="36">
+      <c r="D15" s="39"/>
+      <c r="E15" s="48">
         <v>7374</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="48">
         <v>7358</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="48">
         <v>2000</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="48">
         <v>2000</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="48">
         <v>7905</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28">
+      <c r="J15" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40">
         <v>80</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="36">
+      <c r="N15" s="40"/>
+      <c r="O15" s="48">
         <v>17279</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="48">
         <v>16944</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="42"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="36">
+        <v>102</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="48">
         <v>56584</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="48">
         <v>23994</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="48">
         <v>10000</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="48">
         <v>5000</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="48">
         <v>10462</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="36">
+      <c r="J16" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="48">
         <v>77046</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="48">
         <v>34014</v>
       </c>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="20">
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="32">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="36">
+      <c r="D17" s="39"/>
+      <c r="E17" s="48">
         <v>58968</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="48">
         <v>58968</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="48">
         <v>20000</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="48">
         <v>20000</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="48">
         <v>39561</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="48">
         <v>39561</v>
       </c>
       <c r="K17" s="4"/>
@@ -1810,17 +1880,17 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="32">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1832,17 +1902,17 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1850,77 +1920,77 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="32">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
-        <v>100</v>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="23"/>
+      <c r="I21" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="35"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1932,35 +2002,35 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="23"/>
+        <v>118</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="35"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1972,31 +2042,31 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="32">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+        <v>118</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -2008,31 +2078,31 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="32">
       <c r="A24" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+        <v>118</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -2044,35 +2114,35 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="32">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="J25" s="23"/>
+      <c r="F25" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="35"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -2084,35 +2154,35 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="20">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="32">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="J26" s="23"/>
+        <v>118</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="35"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -2153,227 +2223,227 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="23" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="30" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="31" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="23" width="13.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="16"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="16"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="16"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="16"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="16"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="16"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="16"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
@@ -2387,29 +2457,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="23" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="24" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="24" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="24" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="24" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="24" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="24" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="25" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="23" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="23" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="23" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="22" width="15.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -3168,43 +3238,314 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="37.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="M26" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="75">
+      <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="56.25">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1"/>
+      <c r="B32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -348,23 +348,45 @@
     <t>m2tr</t>
   </si>
   <si>
-    <t/>
+    <t>dual-cross-
+attn</t>
   </si>
   <si>
     <t>dual-cma-
 cnn-attn</t>
   </si>
   <si>
-    <t>dual-cma-cnn-transformer</t>
-  </si>
-  <si>
-    <t>dual-patch-cma-cnn-vit</t>
-  </si>
-  <si>
-    <t>dual-cma-cnn-vit</t>
+    <t>dual-cma-
+cnn-transformer</t>
+  </si>
+  <si>
+    <t>dual-cma-
+cnn-vit</t>
+  </si>
+  <si>
+    <t>dual-patch-cma-
+cnn-vit</t>
   </si>
   <si>
     <t>dual-cnn-vit</t>
+  </si>
+  <si>
+    <t>pairwise-dual-cnn-vit</t>
+  </si>
+  <si>
+    <t>pairwise-dual-
+patch -cnn-cma-
+vit</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>XX 61</t>
+  </si>
+  <si>
+    <t>X 8 (vit)
+X 8 (vit-aggregate)</t>
   </si>
   <si>
     <t>Delete</t>
@@ -500,7 +522,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +533,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -693,11 +721,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -711,7 +742,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -722,54 +753,54 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -800,58 +831,58 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
@@ -1180,1019 +1211,1019 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="23" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="58" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="59" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="59" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="59" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="59" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="59" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="59" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="25" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="25" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="25" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="25" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="25" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="24" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="59" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="60" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="60" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="60" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="60" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="60" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="60" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="26" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="26" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="26" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="26" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="26" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="36" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="45">
+      <c r="D5" s="40"/>
+      <c r="E5" s="46">
         <v>331876</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="46">
         <v>582561</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="46">
         <v>50000</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="46">
         <v>50000</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="46">
         <v>58659</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="48">
         <v>59003</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="41">
         <v>111746</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="49">
         <v>195252</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="41">
         <v>1500</v>
       </c>
-      <c r="N5" s="48">
+      <c r="N5" s="49">
         <v>1132090</v>
       </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="40">
+      <c r="O5" s="41"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="41">
         <v>440526</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="49">
         <v>691564</v>
       </c>
-      <c r="S5" s="41"/>
-      <c r="T5" s="42" t="s">
+      <c r="S5" s="42"/>
+      <c r="T5" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="49" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="46">
         <v>81512</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="46">
         <v>81470</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="46">
         <v>20000</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="46">
         <v>20000</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="46">
         <v>25378</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="46">
         <v>25368</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="48">
+      <c r="K6" s="41"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="49">
         <v>253728</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="40">
+      <c r="O6" s="41"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="41">
         <v>126890</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="49">
         <v>126838</v>
       </c>
-      <c r="S6" s="41"/>
-      <c r="T6" s="42" t="s">
+      <c r="S6" s="42"/>
+      <c r="T6" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="45" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="46">
         <v>81512</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="46">
         <v>81508</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="46">
         <v>20000</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="46">
         <v>20000</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="46">
         <v>25378</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="46">
         <v>25378</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="48">
+      <c r="K7" s="41"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="49">
         <v>253776</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="40">
+      <c r="O7" s="41"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="41">
         <v>126890</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="49">
         <v>126886</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42" t="s">
+      <c r="S7" s="42"/>
+      <c r="T7" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="46">
         <v>81512</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="46">
         <v>60916</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="46">
         <v>20000</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="46">
         <v>20000</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="46">
         <v>25378</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="52">
         <v>20229</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="48">
+      <c r="K8" s="41"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="49">
         <v>228035</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="40">
+      <c r="O8" s="41"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="41">
         <v>126890</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="49">
         <v>101145</v>
       </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="42" t="s">
+      <c r="S8" s="42"/>
+      <c r="T8" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="32">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="45" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="33">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="46">
         <v>81512</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="46">
         <v>60912</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="46">
         <v>20000</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="46">
         <v>20000</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="46">
         <v>25378</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="52">
         <v>20229</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48">
+      <c r="K9" s="41"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49">
         <v>228035</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="49">
         <v>582904</v>
       </c>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48">
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49">
         <v>126890</v>
       </c>
-      <c r="R9" s="48">
+      <c r="R9" s="49">
         <v>101145</v>
       </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42" t="s">
+      <c r="S9" s="42"/>
+      <c r="T9" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="45" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="46">
         <v>81512</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="46">
         <v>284806</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="46">
         <v>20000</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="46">
         <v>80000</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="46">
         <v>25378</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="46">
         <v>91204</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40">
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41">
         <v>2000</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="46" t="s">
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="45">
+      <c r="D11" s="40"/>
+      <c r="E11" s="46">
         <v>107231</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="46">
         <v>671285</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="46">
         <v>25000</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="46">
         <v>30000</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="46">
         <v>38702</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="48">
         <v>41739</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="46">
         <v>107231</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="49">
         <v>235421</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="41">
         <v>1500</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="49">
         <v>910956</v>
       </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="40">
+      <c r="O11" s="41"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="41">
         <v>170933</v>
       </c>
-      <c r="R11" s="48">
+      <c r="R11" s="49">
         <v>740023</v>
       </c>
-      <c r="S11" s="41"/>
-      <c r="T11" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="48">
+      <c r="S11" s="42"/>
+      <c r="T11" s="43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="49">
         <v>507560</v>
       </c>
-      <c r="R12" s="48">
+      <c r="R12" s="49">
         <v>456014</v>
       </c>
-      <c r="S12" s="41"/>
-      <c r="T12" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45">
+      <c r="S12" s="42"/>
+      <c r="T12" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46">
         <v>284810</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="46" t="s">
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="48">
+      <c r="D14" s="40"/>
+      <c r="E14" s="49">
         <v>56817</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="49">
         <v>470087</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="49">
         <v>15000</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="49">
         <v>25000</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="49">
         <v>17508</v>
       </c>
-      <c r="J14" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="40">
+      <c r="J14" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="41">
         <v>56817</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="41">
         <v>158454</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="41">
         <v>1000</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="48">
+      <c r="N14" s="41"/>
+      <c r="O14" s="49">
         <v>89325</v>
       </c>
-      <c r="P14" s="48">
+      <c r="P14" s="49">
         <v>526942</v>
       </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="46" t="s">
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="48">
+      <c r="D15" s="40"/>
+      <c r="E15" s="49">
         <v>7374</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="49">
         <v>7358</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="49">
         <v>2000</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="49">
         <v>2000</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="49">
         <v>7905</v>
       </c>
-      <c r="J15" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40">
+      <c r="J15" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41">
         <v>80</v>
       </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="48">
+      <c r="N15" s="41"/>
+      <c r="O15" s="49">
         <v>17279</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="49">
         <v>16944</v>
       </c>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="48">
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="43"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="49">
         <v>56584</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="49">
         <v>23994</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="49">
         <v>10000</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="49">
         <v>5000</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="49">
         <v>10462</v>
       </c>
-      <c r="J16" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="48">
+      <c r="J16" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="49">
         <v>77046</v>
       </c>
-      <c r="P16" s="48">
+      <c r="P16" s="49">
         <v>34014</v>
       </c>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="32">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="46" t="s">
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="33">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="48">
+      <c r="D17" s="40"/>
+      <c r="E17" s="49">
         <v>58968</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="49">
         <v>58968</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="49">
         <v>20000</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="49">
         <v>20000</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="49">
         <v>39561</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="49">
         <v>39561</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="32">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="32">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N20" s="4" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="33">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="R19" s="5"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="33">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="K20" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="L20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+      <c r="M20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A22" s="2" t="s">
+      <c r="I21" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="32">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="55" t="s">
+      <c r="B23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="56" t="s">
+      <c r="C23" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="33">
+      <c r="A24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="32">
-      <c r="A24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="32">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="33">
+      <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="32">
-      <c r="A26" s="2" t="s">
+      <c r="F25" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="33">
+      <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="36"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2223,229 +2254,229 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="30" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="31" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="23" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="24" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="31" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="32" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="24" width="13.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2464,61 +2495,61 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="23" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="24" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="24" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="24" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="24" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="25" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="22" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="25" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="23" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="23" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="23" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="26" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="24" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="24" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="24" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="22" width="15.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
       <c r="Q1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2526,40 +2557,40 @@
         <v>4</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2569,12 +2600,12 @@
         <v>12</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -2583,477 +2614,477 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="3"/>
       <c r="Q4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>81512</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>81470</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>20000</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>20000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>25378</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>25368</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
+      <c r="M5" s="5"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>81512</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>81508</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>20000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>20000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>25378</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>25378</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>81512</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>60916</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>20000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>20000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>25378</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>20229</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="2" t="s">
+      <c r="M7" s="5"/>
+      <c r="N7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>81512</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>60912</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>20000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>20000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>25378</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>20229</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="5"/>
+      <c r="N8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>81512</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>284806</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>20000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>80000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>25378</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>91204</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
         <v>77211</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>146927</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>20000</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>30000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>48659</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>49003</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2" t="s">
+      <c r="M11" s="5"/>
+      <c r="N11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4">
         <v>49751</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>113545</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>35000</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>38702</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>41739</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="4">
+      <c r="M12" s="5">
         <v>1500</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4">
         <v>36542</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>137557</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>17500</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>30000</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>17508</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>31855</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5">
+      <c r="C14" s="3"/>
+      <c r="D14" s="6">
         <v>7832</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>7474</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>1542</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>1884</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>7905</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>7586</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="Q18" s="1"/>
@@ -3062,489 +3093,449 @@
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="8" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
       <c r="Q20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="46.5">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="9" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="2" t="s">
+      <c r="M21" s="5"/>
+      <c r="N21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
       <c r="Q21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>75</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="P22" s="3"/>
       <c r="Q22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="60">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
         <v>84</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="2" t="s">
+      <c r="M23" s="5"/>
+      <c r="N23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" s="3" t="s">
         <v>87</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
       <c r="Q24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="58.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="13" t="s">
         <v>92</v>
       </c>
+      <c r="L25" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="M25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="N25" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="O25" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="Q25" s="12" t="s">
-        <v>91</v>
+      <c r="P25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="16" t="s">
-        <v>91</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="M26" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
       <c r="Q26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="11"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
       <c r="Q27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="38.25">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="21" t="s">
-        <v>91</v>
+      <c r="B28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="Q28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="56.25">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>91</v>
+      <c r="B29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="P29" s="10"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" s="11"/>
       <c r="Q29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="56.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="44.25">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="21" t="s">
-        <v>91</v>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="O30" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="P30" s="10"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="11"/>
       <c r="Q30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
       <c r="Q31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
-      <c r="B32" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P32" s="2"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
       <c r="Q32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
       <c r="Q33" s="1"/>
     </row>
   </sheetData>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="141">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -379,13 +379,14 @@
 vit</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>XX 61</t>
   </si>
   <si>
+    <t>X 8 (vit-aggregate)</t>
+  </si>
+  <si>
     <t>X 8 (vit)
+X 8 (vit-aggregate)
 X 8 (vit-aggregate)</t>
   </si>
   <si>
@@ -522,7 +523,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,19 +533,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -721,96 +716,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="53">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -819,79 +793,76 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1211,905 +1182,905 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="59" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="60" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="60" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="60" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="60" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="60" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="60" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="26" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="26" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="26" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="26" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="26" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="50" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="51" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="52" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="52" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="52" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="52" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="52" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="19" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="19" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="19" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="39" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43" t="s">
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41" t="s">
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="46">
+      <c r="D5" s="32"/>
+      <c r="E5" s="38">
         <v>331876</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="38">
         <v>582561</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="38">
         <v>50000</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="38">
         <v>50000</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="38">
         <v>58659</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="40">
         <v>59003</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="33">
         <v>111746</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="41">
         <v>195252</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="33">
         <v>1500</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="41">
         <v>1132090</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="41">
+      <c r="O5" s="33"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="33">
         <v>440526</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5" s="41">
         <v>691564</v>
       </c>
-      <c r="S5" s="42"/>
-      <c r="T5" s="43" t="s">
+      <c r="S5" s="34"/>
+      <c r="T5" s="35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="38">
         <v>81512</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="38">
         <v>81470</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="38">
         <v>20000</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="38">
         <v>20000</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="38">
         <v>25378</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="38">
         <v>25368</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="49">
+      <c r="K6" s="33"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="41">
         <v>253728</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="41">
+      <c r="O6" s="33"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="33">
         <v>126890</v>
       </c>
-      <c r="R6" s="49">
+      <c r="R6" s="41">
         <v>126838</v>
       </c>
-      <c r="S6" s="42"/>
-      <c r="T6" s="43" t="s">
+      <c r="S6" s="34"/>
+      <c r="T6" s="35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="38">
         <v>81512</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="38">
         <v>81508</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="38">
         <v>20000</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="38">
         <v>20000</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="38">
         <v>25378</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="38">
         <v>25378</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="49">
+      <c r="K7" s="33"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="41">
         <v>253776</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="41">
+      <c r="O7" s="33"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="33">
         <v>126890</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="41">
         <v>126886</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="43" t="s">
+      <c r="S7" s="34"/>
+      <c r="T7" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="38">
         <v>81512</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="38">
         <v>60916</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="38">
         <v>20000</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="38">
         <v>20000</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="38">
         <v>25378</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="44">
         <v>20229</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="49">
+      <c r="K8" s="33"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="41">
         <v>228035</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="41">
+      <c r="O8" s="33"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="33">
         <v>126890</v>
       </c>
-      <c r="R8" s="49">
+      <c r="R8" s="41">
         <v>101145</v>
       </c>
-      <c r="S8" s="42"/>
-      <c r="T8" s="43" t="s">
+      <c r="S8" s="34"/>
+      <c r="T8" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="14">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="46" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="38">
         <v>81512</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="38">
         <v>60912</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="38">
         <v>20000</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="38">
         <v>20000</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="38">
         <v>25378</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="44">
         <v>20229</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49">
+      <c r="K9" s="33"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41">
         <v>228035</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="41">
         <v>582904</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49">
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41">
         <v>126890</v>
       </c>
-      <c r="R9" s="49">
+      <c r="R9" s="41">
         <v>101145</v>
       </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="43" t="s">
+      <c r="S9" s="34"/>
+      <c r="T9" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="38">
         <v>81512</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="38">
         <v>284806</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="38">
         <v>20000</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="38">
         <v>80000</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="38">
         <v>25378</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="38">
         <v>91204</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41">
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33">
         <v>2000</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="43"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="46">
+      <c r="D11" s="32"/>
+      <c r="E11" s="38">
         <v>107231</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="38">
         <v>671285</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="38">
         <v>25000</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="38">
         <v>30000</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="38">
         <v>38702</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="40">
         <v>41739</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="38">
         <v>107231</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="41">
         <v>235421</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="33">
         <v>1500</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="41">
         <v>910956</v>
       </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="41">
+      <c r="O11" s="33"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="33">
         <v>170933</v>
       </c>
-      <c r="R11" s="49">
+      <c r="R11" s="41">
         <v>740023</v>
       </c>
-      <c r="S11" s="42"/>
-      <c r="T11" s="43" t="s">
+      <c r="S11" s="34"/>
+      <c r="T11" s="35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="49">
+      <c r="C12" s="35"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="41">
         <v>507560</v>
       </c>
-      <c r="R12" s="49">
+      <c r="R12" s="41">
         <v>456014</v>
       </c>
-      <c r="S12" s="42"/>
-      <c r="T12" s="43"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46">
+      <c r="C13" s="35"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38">
         <v>284810</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="43"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="49">
+      <c r="D14" s="32"/>
+      <c r="E14" s="41">
         <v>56817</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="41">
         <v>470087</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="41">
         <v>15000</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="41">
         <v>25000</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="41">
         <v>17508</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="33">
         <v>56817</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="33">
         <v>158454</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="33">
         <v>1000</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="49">
+      <c r="N14" s="33"/>
+      <c r="O14" s="41">
         <v>89325</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="41">
         <v>526942</v>
       </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="43"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="49">
+      <c r="D15" s="32"/>
+      <c r="E15" s="41">
         <v>7374</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="41">
         <v>7358</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="41">
         <v>2000</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="41">
         <v>2000</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="41">
         <v>7905</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41">
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33">
         <v>80</v>
       </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="49">
+      <c r="N15" s="33"/>
+      <c r="O15" s="41">
         <v>17279</v>
       </c>
-      <c r="P15" s="49">
+      <c r="P15" s="41">
         <v>16944</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="43"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="33">
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="49">
+      <c r="D16" s="32"/>
+      <c r="E16" s="41">
         <v>56584</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="41">
         <v>23994</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="41">
         <v>10000</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="41">
         <v>5000</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="41">
         <v>10462</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="49">
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="41">
         <v>77046</v>
       </c>
-      <c r="P16" s="49">
+      <c r="P16" s="41">
         <v>34014</v>
       </c>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="33">
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="14">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="49">
+      <c r="D17" s="32"/>
+      <c r="E17" s="41">
         <v>58968</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="41">
         <v>58968</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="41">
         <v>20000</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="41">
         <v>20000</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="41">
         <v>39561</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="41">
         <v>39561</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="14">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R19" s="5"/>
+      <c r="R19" s="6"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="14">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="R20" s="5"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I22" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="14">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="14">
       <c r="A24" s="3" t="s">
         <v>129</v>
       </c>
@@ -2119,109 +2090,109 @@
       <c r="C24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="14">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="I25" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="33">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="14">
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
@@ -2254,227 +2225,227 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="31" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="32" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="24" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="24" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="25" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="13.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="29"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="29"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="29"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="29"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="29"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="29"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
@@ -2494,23 +2465,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="23" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="25" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="25" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="25" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="25" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="22" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="26" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="24" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="24" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="24" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="22" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="19" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="17" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="17" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="15" width="15.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -2524,9 +2495,9 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="5"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="5"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -2538,26 +2509,26 @@
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -2575,32 +2546,32 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
         <v>13</v>
@@ -2620,12 +2591,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
         <v>16</v>
@@ -2662,9 +2633,9 @@
         <v>25368</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="6"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
         <v>20</v>
@@ -2699,9 +2670,9 @@
         <v>25378</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
         <v>23</v>
@@ -2734,9 +2705,9 @@
         <v>20229</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2771,9 +2742,9 @@
         <v>20229</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2808,9 +2779,9 @@
         <v>91204</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="3" t="s">
         <v>31</v>
       </c>
@@ -2828,12 +2799,12 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -2847,7 +2818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="46.5">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -2865,16 +2836,16 @@
       <c r="G11" s="4">
         <v>30000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>48659</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>49003</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="3" t="s">
         <v>37</v>
       </c>
@@ -2902,16 +2873,16 @@
       <c r="G12" s="4">
         <v>35000</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <v>38702</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <v>41739</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>1500</v>
       </c>
       <c r="N12" s="3" t="s">
@@ -2941,16 +2912,16 @@
       <c r="G13" s="4">
         <v>30000</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>17508</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>31855</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2962,28 +2933,28 @@
         <v>43</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>7832</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>7474</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>1542</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>1884</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="7">
         <v>7905</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>7586</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2993,16 +2964,16 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -3012,16 +2983,16 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="6"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -3031,16 +3002,16 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -3054,28 +3025,28 @@
       <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="7" t="s">
         <v>51</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="6" t="s">
         <v>52</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -3093,29 +3064,29 @@
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="9" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="11" t="s">
         <v>59</v>
       </c>
       <c r="O19" s="3"/>
@@ -3126,16 +3097,16 @@
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -3145,28 +3116,28 @@
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="10" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="3" t="s">
         <v>68</v>
       </c>
@@ -3184,24 +3155,24 @@
       <c r="C22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="6" t="s">
         <v>76</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -3223,22 +3194,22 @@
       <c r="C23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="3" t="s">
         <v>85</v>
       </c>
@@ -3254,266 +3225,260 @@
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="58.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="46.5">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="7" t="s">
         <v>51</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O25" s="16" t="s">
+      <c r="O25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q25" s="17" t="s">
+      <c r="Q25" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
       <c r="Q27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="38.25">
-      <c r="A28" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="14">
+      <c r="A28" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="60" customFormat="1" s="14">
+      <c r="A29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q28" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="56.25">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="44.25">
-      <c r="A30" s="1" t="s">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="14">
+      <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="6"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
       <c r="Q31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="5"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -3523,16 +3488,16 @@
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="5"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="163">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -364,8 +364,7 @@
 cnn-vit</t>
   </si>
   <si>
-    <t>dual-patch-cma-
-cnn-vit</t>
+    <t>dual-patch-cma-cnn-vit</t>
   </si>
   <si>
     <t>dual-cnn-vit</t>
@@ -374,20 +373,110 @@
     <t>pairwise-dual-cnn-vit</t>
   </si>
   <si>
-    <t>pairwise-dual-
-patch -cnn-cma-
-vit</t>
-  </si>
-  <si>
-    <t>XX 61</t>
-  </si>
-  <si>
-    <t>X 8 (vit-aggregate)</t>
-  </si>
-  <si>
-    <t>X 8 (vit)
-X 8 (vit-aggregate)
-X 8 (vit-aggregate)</t>
+    <t>pairwise-dual-patch -cnn-cma-vit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.703 (61)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.795 (61)
+</t>
+  </si>
+  <si>
+    <t>0.943 (61)</t>
+  </si>
+  <si>
+    <t>0.960 (61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975 (61)
+61: 0.975
+8: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958 (61)
+61: 0.958
+8: </t>
+  </si>
+  <si>
+    <t>8: 0.610</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.779 (61)
+</t>
+  </si>
+  <si>
+    <t>'0.831 (61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848 (61)
+61: 0.848, 0.833
+8: </t>
+  </si>
+  <si>
+    <t>0.848 (61)
+61: 0.848, 0.839
+8: 0.830</t>
+  </si>
+  <si>
+    <t>0.866 (61)
+61: 0.866, 0.857
+8: 0.854</t>
+  </si>
+  <si>
+    <t>61:
+8: 0.846</t>
+  </si>
+  <si>
+    <t>0.850 (8) - b32|g0.8-0.3-0.1|(1-2)-(1-2)|de2p2|relu|vit_d2h3|0.2-0
+X 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857 (61) - vit_agg_0.3-h4d3p2-selu-dr0.2-aug0 - resume
+0.849 (61) - vit_agg_0.5-h4d3p2-selu-dr0.2-aug1 - resume
+0.853 (61) - vit-h4d3p2-tanh-dr0.2-aug0 - resume
+0.847 (8) - vit_agg-1| h8d6p2|selu|dr0.4|aug0-overfit
+0.854 (8) - vit_agg0.3|h4d2p2|selu|dr0.2|aug0
+0.847 (8) - vit_agg0.2|h8d6p2|selu|dr0.4|aug1 - X8
+</t>
+  </si>
+  <si>
+    <t>0.791 (8) - b24|i2m2|cat0.8|
+X 8</t>
+  </si>
+  <si>
+    <t>0.843 (61) - b24-i1.5_m1_gcma(-1)_d2-vit-d2h3-p2-dr0.2-aug1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.625 (61)
+</t>
+  </si>
+  <si>
+    <t>0.689 (61)</t>
+  </si>
+  <si>
+    <t>0.778 (61)</t>
+  </si>
+  <si>
+    <t>0.795 (61)</t>
+  </si>
+  <si>
+    <t>0.828 (61)
+61: 0.828
+8: 0.813</t>
+  </si>
+  <si>
+    <t>0.789 (61)
+61: 0.789
+8: 0.806</t>
+  </si>
+  <si>
+    <t>X 61 - vit_agg_0.1-h3d1p1-tanh-dr0.2-aug0
+X 8</t>
   </si>
   <si>
     <t>Delete</t>
@@ -716,64 +805,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1182,1019 +1265,1019 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="50" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="51" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="52" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="52" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="52" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="52" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="52" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="19" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="48" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="49" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="50" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="50" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="50" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="50" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="50" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="50" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="16" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="16" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="16" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="29" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33" t="s">
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="38">
+      <c r="D5" s="30"/>
+      <c r="E5" s="36">
         <v>331876</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="36">
         <v>582561</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="36">
         <v>50000</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="36">
         <v>50000</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="36">
         <v>58659</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="38">
         <v>59003</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="31">
         <v>111746</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="39">
         <v>195252</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="31">
         <v>1500</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="39">
         <v>1132090</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="33">
+      <c r="O5" s="31"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="31">
         <v>440526</v>
       </c>
-      <c r="R5" s="41">
+      <c r="R5" s="39">
         <v>691564</v>
       </c>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35" t="s">
+      <c r="S5" s="32"/>
+      <c r="T5" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="42" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>81512</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="36">
         <v>81470</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="36">
         <v>20000</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="36">
         <v>20000</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="36">
         <v>25378</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="36">
         <v>25368</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="41">
+      <c r="K6" s="31"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="39">
         <v>253728</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="33">
+      <c r="O6" s="31"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="31">
         <v>126890</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="39">
         <v>126838</v>
       </c>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35" t="s">
+      <c r="S6" s="32"/>
+      <c r="T6" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="38" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>81512</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>81508</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="36">
         <v>20000</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="36">
         <v>20000</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="36">
         <v>25378</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="36">
         <v>25378</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="41">
+      <c r="K7" s="31"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="39">
         <v>253776</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="33">
+      <c r="O7" s="31"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="31">
         <v>126890</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="39">
         <v>126886</v>
       </c>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="38" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>81512</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>60916</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="36">
         <v>20000</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="36">
         <v>20000</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="36">
         <v>25378</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="42">
         <v>20229</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="41">
+      <c r="K8" s="31"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="39">
         <v>228035</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="33">
+      <c r="O8" s="31"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="31">
         <v>126890</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="39">
         <v>101145</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35" t="s">
+      <c r="S8" s="32"/>
+      <c r="T8" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="14">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="38" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>81512</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>60912</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="36">
         <v>20000</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="36">
         <v>20000</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="36">
         <v>25378</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="42">
         <v>20229</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41">
+      <c r="K9" s="31"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39">
         <v>228035</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="39">
         <v>582904</v>
       </c>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39">
         <v>126890</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="39">
         <v>101145</v>
       </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35" t="s">
+      <c r="S9" s="32"/>
+      <c r="T9" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="38" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>81512</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>284806</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="36">
         <v>20000</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="36">
         <v>80000</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="36">
         <v>25378</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <v>91204</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33">
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31">
         <v>2000</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="39" t="s">
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="38">
+      <c r="D11" s="30"/>
+      <c r="E11" s="36">
         <v>107231</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="36">
         <v>671285</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="36">
         <v>25000</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="36">
         <v>30000</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="36">
         <v>38702</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="38">
         <v>41739</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="36">
         <v>107231</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="39">
         <v>235421</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="31">
         <v>1500</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="39">
         <v>910956</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="33">
+      <c r="O11" s="31"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="31">
         <v>170933</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="39">
         <v>740023</v>
       </c>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="41">
+      <c r="S11" s="32"/>
+      <c r="T11" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="39">
         <v>507560</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="39">
         <v>456014</v>
       </c>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38">
+      <c r="S12" s="32"/>
+      <c r="T12" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36">
         <v>284810</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="39" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="41">
+      <c r="D14" s="30"/>
+      <c r="E14" s="39">
         <v>56817</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <v>470087</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>15000</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="39">
         <v>25000</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="39">
         <v>17508</v>
       </c>
-      <c r="J14" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="33">
+      <c r="J14" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="31">
         <v>56817</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="31">
         <v>158454</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="31">
         <v>1000</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="41">
+      <c r="N14" s="31"/>
+      <c r="O14" s="39">
         <v>89325</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="39">
         <v>526942</v>
       </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="39" t="s">
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="41">
+      <c r="D15" s="30"/>
+      <c r="E15" s="39">
         <v>7374</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="39">
         <v>7358</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="39">
         <v>2000</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="39">
         <v>2000</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="39">
         <v>7905</v>
       </c>
-      <c r="J15" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33">
+      <c r="J15" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31">
         <v>80</v>
       </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="41">
+      <c r="N15" s="31"/>
+      <c r="O15" s="39">
         <v>17279</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="39">
         <v>16944</v>
       </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="41">
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="39">
         <v>56584</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="39">
         <v>23994</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="39">
         <v>10000</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="39">
         <v>5000</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="39">
         <v>10462</v>
       </c>
-      <c r="J16" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="41">
+      <c r="J16" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="39">
         <v>77046</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="39">
         <v>34014</v>
       </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="14">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="39" t="s">
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="12">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="41">
+      <c r="D17" s="30"/>
+      <c r="E17" s="39">
         <v>58968</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="39">
         <v>58968</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="39">
         <v>20000</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="39">
         <v>20000</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="39">
         <v>39561</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="39">
         <v>39561</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="14">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="14">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="12">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="12">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A22" s="3" t="s">
+      <c r="I21" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="12">
+      <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="14">
-      <c r="A24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="14">
-      <c r="A25" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="12">
+      <c r="A24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="12">
+      <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="14">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="12">
+      <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2225,229 +2308,229 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="24" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="25" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="17" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="22" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="23" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="13.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2459,93 +2542,96 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="17" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="17" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="17" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="77.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="52.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="13" width="57.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="17" width="19.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="5"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="1"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2567,42 +2653,44 @@
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="1" t="s">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2611,210 +2699,216 @@
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>81512</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>81470</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>20000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>20000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>25378</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>25368</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="1" t="s">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>81512</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>81508</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>20000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>20000</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>25378</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>25378</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>81512</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>60916</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>20000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>20000</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>25378</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>20229</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="3" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>81512</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>60912</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>20000</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>20000</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>25378</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>20229</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="3" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>81512</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>284806</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>20000</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>80000</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>25378</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>91204</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="1"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="1" t="s">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2823,17 +2917,17 @@
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
         <v>77211</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>146927</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>20000</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>30000</v>
       </c>
       <c r="H11" s="7">
@@ -2843,34 +2937,35 @@
         <v>49003</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="3" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
         <v>49751</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>113545</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>35000</v>
       </c>
       <c r="H12" s="7">
@@ -2880,36 +2975,37 @@
         <v>41739</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <v>1500</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="1"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
         <v>36542</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>137557</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>17500</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>30000</v>
       </c>
       <c r="H13" s="7">
@@ -2919,20 +3015,21 @@
         <v>31855</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="1"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="7">
         <v>7832</v>
       </c>
@@ -2952,18 +3049,19 @@
         <v>7586</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="1"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2971,18 +3069,19 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="1"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -2990,18 +3089,19 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="1"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -3009,20 +3109,21 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="1"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -3044,21 +3145,22 @@
         <v>51</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
@@ -3067,7 +3169,7 @@
       <c r="B19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -3081,22 +3183,23 @@
         <v>60</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="1"/>
       <c r="M19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -3104,13 +3207,14 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="1"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="46.5">
       <c r="A21" s="1" t="s">
@@ -3119,7 +3223,7 @@
       <c r="B21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -3127,23 +3231,24 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="10" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="3" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5">
       <c r="A22" s="1" t="s">
@@ -3152,37 +3257,38 @@
       <c r="B22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="1"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="60">
       <c r="A23" s="1" t="s">
@@ -3191,7 +3297,7 @@
       <c r="B23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -3199,32 +3305,33 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="3" t="s">
+      <c r="M23" s="4"/>
+      <c r="N23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -3232,20 +3339,21 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="46.5">
+      <c r="M24" s="4"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="44.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -3269,34 +3377,35 @@
       <c r="J25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>92</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="2" t="s">
         <v>95</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="R25" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -3304,18 +3413,19 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="1"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -3323,133 +3433,137 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="5"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A28" s="5" t="s">
+      <c r="M27" s="4"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46.5" customFormat="1" s="12">
+      <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="60" customFormat="1" s="14">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="87" customFormat="1" s="12">
+      <c r="A29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="14">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5" customFormat="1" s="12">
+      <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -3457,18 +3571,19 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="5"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="1"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -3476,18 +3591,19 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="2"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="1"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -3495,13 +3611,14 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="2"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="1"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="163">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -403,9 +403,6 @@
     <t>8: 0.610</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">0.779 (61)
 </t>
   </si>
@@ -433,7 +430,7 @@
   </si>
   <si>
     <t>0.850 (8) - b32|g0.8-0.3-0.1|(1-2)-(1-2)|de2p2|relu|vit_d2h3|0.2-0
-X 8</t>
+X 8 - dual patch cnn ca vit</t>
   </si>
   <si>
     <t xml:space="preserve">0.857 (61) - vit_agg_0.3-h4d3p2-selu-dr0.2-aug0 - resume
@@ -442,6 +439,7 @@
 0.847 (8) - vit_agg-1| h8d6p2|selu|dr0.4|aug0-overfit
 0.854 (8) - vit_agg0.3|h4d2p2|selu|dr0.2|aug0
 0.847 (8) - vit_agg0.2|h8d6p2|selu|dr0.4|aug1 - X8
+XXX 8- dual_efficient_test
 </t>
   </si>
   <si>
@@ -476,7 +474,10 @@
   </si>
   <si>
     <t>X 61 - vit_agg_0.1-h3d1p1-tanh-dr0.2-aug0
-X 8</t>
+X 8 - dual_efficient_test</t>
+  </si>
+  <si>
+    <t>X 61</t>
   </si>
   <si>
     <t>Delete</t>
@@ -622,13 +623,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -805,18 +806,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -825,49 +856,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -876,13 +874,13 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -939,13 +937,13 @@
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1265,1019 +1263,1019 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="48" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="49" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="50" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="50" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="50" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="50" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="50" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="50" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="48" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="49" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="49" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="49" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="49" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="49" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="49" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="27" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="33" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31" t="s">
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="36">
+      <c r="D5" s="29"/>
+      <c r="E5" s="35">
         <v>331876</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>582561</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>50000</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <v>50000</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <v>58659</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <v>59003</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="30">
         <v>111746</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="38">
         <v>195252</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="30">
         <v>1500</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="38">
         <v>1132090</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="31">
+      <c r="O5" s="30"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="30">
         <v>440526</v>
       </c>
-      <c r="R5" s="39">
+      <c r="R5" s="38">
         <v>691564</v>
       </c>
-      <c r="S5" s="32"/>
-      <c r="T5" s="33" t="s">
+      <c r="S5" s="31"/>
+      <c r="T5" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>81512</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>81470</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>20000</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>20000</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>25378</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>25368</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="39">
+      <c r="K6" s="30"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="38">
         <v>253728</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="31">
+      <c r="O6" s="30"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="30">
         <v>126890</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="38">
         <v>126838</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="33" t="s">
+      <c r="S6" s="31"/>
+      <c r="T6" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>81512</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>81508</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>20000</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>20000</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>25378</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <v>25378</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="39">
+      <c r="K7" s="30"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="38">
         <v>253776</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="31">
+      <c r="O7" s="30"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="30">
         <v>126890</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="38">
         <v>126886</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="33" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>81512</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>60916</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>20000</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>20000</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>25378</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <v>20229</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="39">
+      <c r="K8" s="30"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="38">
         <v>228035</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="31">
+      <c r="O8" s="30"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="30">
         <v>126890</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="38">
         <v>101145</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33" t="s">
+      <c r="S8" s="31"/>
+      <c r="T8" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="12">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>81512</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>60912</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>20000</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>20000</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>25378</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="41">
         <v>20229</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39">
+      <c r="K9" s="30"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38">
         <v>228035</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="38">
         <v>582904</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39">
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38">
         <v>126890</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="38">
         <v>101145</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="33" t="s">
+      <c r="S9" s="31"/>
+      <c r="T9" s="32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>81512</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>284806</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>20000</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>80000</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>25378</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>91204</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31">
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30">
         <v>2000</v>
       </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="32"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="36">
+      <c r="D11" s="29"/>
+      <c r="E11" s="35">
         <v>107231</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>671285</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>25000</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <v>30000</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <v>38702</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="37">
         <v>41739</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>107231</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="38">
         <v>235421</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>1500</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="38">
         <v>910956</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="31">
+      <c r="O11" s="30"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="30">
         <v>170933</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="38">
         <v>740023</v>
       </c>
-      <c r="S11" s="32"/>
-      <c r="T11" s="33" t="s">
+      <c r="S11" s="31"/>
+      <c r="T11" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="39">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="38">
         <v>507560</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="38">
         <v>456014</v>
       </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36">
+      <c r="S12" s="31"/>
+      <c r="T12" s="32"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35">
         <v>284810</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="39">
+      <c r="D14" s="29"/>
+      <c r="E14" s="38">
         <v>56817</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <v>470087</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <v>15000</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="38">
         <v>25000</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="38">
         <v>17508</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="30">
         <v>56817</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <v>158454</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="30">
         <v>1000</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="39">
+      <c r="N14" s="30"/>
+      <c r="O14" s="38">
         <v>89325</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="38">
         <v>526942</v>
       </c>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="32"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="39">
+      <c r="D15" s="29"/>
+      <c r="E15" s="38">
         <v>7374</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="38">
         <v>7358</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <v>2000</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="38">
         <v>2000</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="38">
         <v>7905</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31">
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30">
         <v>80</v>
       </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="39">
+      <c r="N15" s="30"/>
+      <c r="O15" s="38">
         <v>17279</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="38">
         <v>16944</v>
       </c>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="32"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="39">
+      <c r="D16" s="29"/>
+      <c r="E16" s="38">
         <v>56584</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <v>23994</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="38">
         <v>10000</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="38">
         <v>5000</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="38">
         <v>10462</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="39">
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="38">
         <v>77046</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="38">
         <v>34014</v>
       </c>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="12">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="37" t="s">
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="39">
+      <c r="D17" s="29"/>
+      <c r="E17" s="38">
         <v>58968</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="38">
         <v>58968</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <v>20000</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="38">
         <v>20000</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="38">
         <v>39561</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="38">
         <v>39561</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="12">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="12">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26" t="s">
+      <c r="R19" s="3"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+      <c r="R20" s="3"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A22" s="2" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="12">
-      <c r="A23" s="2" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="12">
-      <c r="A24" s="2" t="s">
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="11">
+      <c r="A24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="12">
-      <c r="A25" s="2" t="s">
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="11">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="12">
-      <c r="A26" s="2" t="s">
+      <c r="J25" s="25"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="11">
+      <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2308,229 +2306,229 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="22" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="23" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="21" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="22" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="13.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,1077 +2546,1075 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="77.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="52.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="57.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="17" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="77.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="52.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="15" width="57.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="16" width="19.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="6"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="6" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6" t="s">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="6" t="s">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>81512</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>81470</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>20000</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>20000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>25378</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>25368</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6" t="s">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>81512</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>81508</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>20000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>20000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>25378</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>25378</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>81512</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>60916</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>20000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>20000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>25378</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>20229</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="2" t="s">
+      <c r="M7" s="3"/>
+      <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>81512</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>60912</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>20000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>20000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>25378</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>20229</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>81512</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>284806</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>20000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>80000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>25378</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>91204</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="6" t="s">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="46.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
         <v>77211</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>146927</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>20000</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>30000</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>48659</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>49003</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2">
         <v>49751</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>113545</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>35000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>38702</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>41739</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="6"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2">
         <v>36542</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>137557</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>17500</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>30000</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>17508</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>31855</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="7">
+      <c r="C14" s="1"/>
+      <c r="D14" s="6">
         <v>7832</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>7474</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>1542</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>1884</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>7905</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>7586</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
       <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="8" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="6"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="6"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="46.5">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="9" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="2" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="6"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>75</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="6"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="60">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>84</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="2" t="s">
+      <c r="M23" s="3"/>
+      <c r="N23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="6"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="44.25">
+      <c r="M24" s="3"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="46.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="6"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46.5" customFormat="1" s="12">
-      <c r="A28" s="2" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46.5" customFormat="1" s="11">
+      <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="87" customFormat="1" s="12">
-      <c r="A29" s="2" t="s">
+      <c r="R28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="134.25" customFormat="1" s="11">
+      <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="1"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="R29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5" customFormat="1" s="11">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="R29" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5" customFormat="1" s="12">
-      <c r="A30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P30" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="Q30" s="1"/>
-      <c r="R30" s="2"/>
+      <c r="R30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="6"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="2"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="6"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="6"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -438,7 +438,7 @@
 0.853 (61) - vit-h4d3p2-tanh-dr0.2-aug0 - resume
 0.847 (8) - vit_agg-1| h8d6p2|selu|dr0.4|aug0-overfit
 0.854 (8) - vit_agg0.3|h4d2p2|selu|dr0.2|aug0
-0.847 (8) - vit_agg0.2|h8d6p2|selu|dr0.4|aug1 - X8
+0.847 (8) - vit_agg0.2|h8d6p2|selu|dr0.4|aug1
 XXX 8- dual_efficient_test
 </t>
   </si>
@@ -473,8 +473,11 @@
 8: 0.806</t>
   </si>
   <si>
-    <t>X 61 - vit_agg_0.1-h3d1p1-tanh-dr0.2-aug0
-X 8 - dual_efficient_test</t>
+    <t>X 8 - dual patch cnn ca vit
+X 8 - dual patch cnn ca vit</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>X 61</t>
@@ -613,7 +616,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,12 +627,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -806,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -817,9 +814,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -851,9 +845,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -883,58 +874,58 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
@@ -1263,693 +1254,693 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="47" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="48" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="49" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="49" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="49" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="49" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="49" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="49" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="45" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="46" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="47" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="47" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="47" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="47" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="47" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="47" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="30" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="32" t="s">
+      <c r="L3" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="35">
+      <c r="D5" s="27"/>
+      <c r="E5" s="33">
         <v>331876</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="33">
         <v>582561</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>50000</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="33">
         <v>50000</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="33">
         <v>58659</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="35">
         <v>59003</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="28">
         <v>111746</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="36">
         <v>195252</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="28">
         <v>1500</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="36">
         <v>1132090</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="30">
+      <c r="O5" s="28"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="28">
         <v>440526</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="36">
         <v>691564</v>
       </c>
-      <c r="S5" s="31"/>
-      <c r="T5" s="32" t="s">
+      <c r="S5" s="29"/>
+      <c r="T5" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>81512</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>81470</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>20000</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="33">
         <v>20000</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="33">
         <v>25378</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <v>25368</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="38">
+      <c r="K6" s="28"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="36">
         <v>253728</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="30">
+      <c r="O6" s="28"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="28">
         <v>126890</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="36">
         <v>126838</v>
       </c>
-      <c r="S6" s="31"/>
-      <c r="T6" s="32" t="s">
+      <c r="S6" s="29"/>
+      <c r="T6" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>81512</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>81508</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="33">
         <v>20000</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="33">
         <v>20000</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="33">
         <v>25378</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="33">
         <v>25378</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="38">
+      <c r="K7" s="28"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="36">
         <v>253776</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="30">
+      <c r="O7" s="28"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="28">
         <v>126890</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="36">
         <v>126886</v>
       </c>
-      <c r="S7" s="31"/>
-      <c r="T7" s="32" t="s">
+      <c r="S7" s="29"/>
+      <c r="T7" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>81512</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>60916</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="33">
         <v>20000</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="33">
         <v>20000</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="33">
         <v>25378</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="39">
         <v>20229</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="38">
+      <c r="K8" s="28"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="36">
         <v>228035</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="30">
+      <c r="O8" s="28"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="28">
         <v>126890</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="36">
         <v>101145</v>
       </c>
-      <c r="S8" s="31"/>
-      <c r="T8" s="32" t="s">
+      <c r="S8" s="29"/>
+      <c r="T8" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="10">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>81512</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>60912</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="33">
         <v>20000</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="33">
         <v>20000</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="33">
         <v>25378</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="39">
         <v>20229</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38">
+      <c r="K9" s="28"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36">
         <v>228035</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="36">
         <v>582904</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38">
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36">
         <v>126890</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="36">
         <v>101145</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="32" t="s">
+      <c r="S9" s="29"/>
+      <c r="T9" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="33">
         <v>81512</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>284806</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="33">
         <v>20000</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="33">
         <v>80000</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="33">
         <v>25378</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>91204</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30">
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28">
         <v>2000</v>
       </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="35">
+      <c r="D11" s="27"/>
+      <c r="E11" s="33">
         <v>107231</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>671285</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="33">
         <v>25000</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="33">
         <v>30000</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="33">
         <v>38702</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="35">
         <v>41739</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33">
         <v>107231</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <v>235421</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="28">
         <v>1500</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="36">
         <v>910956</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="30">
+      <c r="O11" s="28"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="28">
         <v>170933</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R11" s="36">
         <v>740023</v>
       </c>
-      <c r="S11" s="31"/>
-      <c r="T11" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="S11" s="29"/>
+      <c r="T11" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="38">
+      <c r="C12" s="30"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="36">
         <v>507560</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="36">
         <v>456014</v>
       </c>
-      <c r="S12" s="31"/>
-      <c r="T12" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="S12" s="29"/>
+      <c r="T12" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35">
+      <c r="C13" s="30"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33">
         <v>284810</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="38">
+      <c r="D14" s="27"/>
+      <c r="E14" s="36">
         <v>56817</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <v>470087</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="36">
         <v>15000</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>25000</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="36">
         <v>17508</v>
       </c>
-      <c r="J14" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="K14" s="30">
+      <c r="J14" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="28">
         <v>56817</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="28">
         <v>158454</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="28">
         <v>1000</v>
       </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="38">
+      <c r="N14" s="28"/>
+      <c r="O14" s="36">
         <v>89325</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="36">
         <v>526942</v>
       </c>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="38">
+      <c r="D15" s="27"/>
+      <c r="E15" s="36">
         <v>7374</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="36">
         <v>7358</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="36">
         <v>2000</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="36">
         <v>2000</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="36">
         <v>7905</v>
       </c>
-      <c r="J15" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30">
+      <c r="J15" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28">
         <v>80</v>
       </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="38">
+      <c r="N15" s="28"/>
+      <c r="O15" s="36">
         <v>17279</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="36">
         <v>16944</v>
       </c>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="38">
+        <v>130</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="36">
         <v>56584</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="36">
         <v>23994</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="36">
         <v>10000</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="36">
         <v>5000</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="36">
         <v>10462</v>
       </c>
-      <c r="J16" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" s="30" t="s">
+      <c r="J16" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="38">
+      <c r="K16" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="36">
         <v>77046</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="36">
         <v>34014</v>
       </c>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="11">
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="38">
+      <c r="D17" s="27"/>
+      <c r="E17" s="36">
         <v>58968</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="36">
         <v>58968</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="36">
         <v>20000</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="36">
         <v>20000</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="36">
         <v>39561</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="36">
         <v>39561</v>
       </c>
       <c r="K17" s="3"/>
@@ -1963,17 +1954,17 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1985,17 +1976,17 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2003,77 +1994,77 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="154.5" customFormat="1" s="10">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25" t="s">
-        <v>136</v>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="J21" s="25"/>
+      <c r="I21" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="23"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2085,35 +2076,35 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" s="25"/>
+      <c r="H22" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="23"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2125,31 +2116,31 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="F23" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2161,31 +2152,31 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="10">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+        <v>146</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2197,35 +2188,35 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="10">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="C25" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="25" t="s">
+      <c r="D25" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="E25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="H25" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="J25" s="25"/>
+      <c r="I25" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="23"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2237,35 +2228,35 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="10">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="25" t="s">
+      <c r="D26" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="E26" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="H26" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="25"/>
+      <c r="I26" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="23"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2306,227 +2297,227 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="21" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="20" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="19"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="19"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="19"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
@@ -2546,24 +2537,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="77.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="52.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="57.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="77.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="52.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="57.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="19.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -2583,8 +2574,8 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
@@ -2592,15 +2583,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="2"/>
@@ -2621,31 +2612,31 @@
         <v>7</v>
       </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="73.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2663,8 +2654,8 @@
       <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2676,8 +2667,8 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2687,8 +2678,8 @@
         <v>16</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2727,8 +2718,8 @@
         <v>20</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5" t="s">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2765,8 +2756,8 @@
         <v>23</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
@@ -2803,8 +2794,8 @@
         <v>26</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
       <c r="A8" s="1"/>
@@ -2841,8 +2832,8 @@
         <v>29</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
       <c r="A9" s="1"/>
@@ -2879,10 +2870,10 @@
         <v>32</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2890,8 +2881,8 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2905,8 +2896,8 @@
         <v>35</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5" t="s">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2928,10 +2919,10 @@
       <c r="G11" s="2">
         <v>30000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>48659</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>49003</v>
       </c>
       <c r="J11" s="1"/>
@@ -2945,8 +2936,8 @@
         <v>38</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
@@ -2966,10 +2957,10 @@
       <c r="G12" s="2">
         <v>35000</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>38702</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>41739</v>
       </c>
       <c r="J12" s="1"/>
@@ -2985,8 +2976,8 @@
         <v>41</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="5"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
@@ -3006,10 +2997,10 @@
       <c r="G13" s="2">
         <v>30000</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>17508</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>31855</v>
       </c>
       <c r="J13" s="1"/>
@@ -3019,8 +3010,8 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="5"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
@@ -3028,22 +3019,22 @@
         <v>43</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>7832</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>7474</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>1542</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>1884</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>7905</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>7586</v>
       </c>
       <c r="J14" s="1"/>
@@ -3053,19 +3044,19 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3073,19 +3064,19 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="5"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3093,19 +3084,19 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="5"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3113,8 +3104,8 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="5"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
       <c r="A18" s="1"/>
@@ -3124,22 +3115,22 @@
       <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J18" s="1"/>
@@ -3157,53 +3148,53 @@
       <c r="P18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="5"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>59</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="5"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3211,29 +3202,29 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="5"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="46.5">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="1"/>
@@ -3245,8 +3236,8 @@
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="5"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5">
       <c r="A22" s="1" t="s">
@@ -3261,8 +3252,8 @@
       <c r="D22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="3" t="s">
         <v>73</v>
       </c>
@@ -3285,8 +3276,8 @@
         <v>78</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="5"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="60">
       <c r="A23" s="1" t="s">
@@ -3298,11 +3289,11 @@
       <c r="C23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="3" t="s">
         <v>83</v>
       </c>
@@ -3323,19 +3314,19 @@
       <c r="P23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="5"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3343,8 +3334,8 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="5"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="46.5">
       <c r="A25" s="1"/>
@@ -3354,22 +3345,22 @@
       <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -3396,7 +3387,7 @@
       <c r="Q25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R25" s="10"/>
+      <c r="R25" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
@@ -3404,12 +3395,12 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3417,19 +3408,19 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="5"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3437,10 +3428,10 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46.5" customFormat="1" s="11">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46.5" customFormat="1" s="10">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -3474,7 +3465,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="134.25" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="134.25" customFormat="1" s="10">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -3487,7 +3478,7 @@
       <c r="F29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>107</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -3518,7 +3509,7 @@
       </c>
       <c r="R29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5" customFormat="1" s="11">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5" customFormat="1" s="10">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -3546,12 +3537,14 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="O30" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="P30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3560,12 +3553,12 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3573,19 +3566,19 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="5"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3593,19 +3586,19 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="5"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3613,8 +3606,8 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="5"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -36,10 +36,11 @@
     <t>Step</t>
   </si>
   <si>
-    <t>Task 1:</t>
-  </si>
-  <si>
-    <t>Refractor:</t>
+    <t>Task 1: 1. K-Fold: chia K phần cho từng class, gộp lại
+2. dual-dab với ifft
+3. thêm phase	V:oke
+4. multi-scale vit.
+5. Tripletloss</t>
   </si>
   <si>
     <t>Tiến độ</t>
@@ -57,24 +58,9 @@
     <t>test</t>
   </si>
   <si>
-    <t>1. Thêm augmen + 
-dropout</t>
-  </si>
-  <si>
-    <t>Mới chỉ sửa ở argstrain.
-Còn có dataloader,
-train_torch, 
-train_pairwise, 
-train_outtwoclass</t>
-  </si>
-  <si>
     <t>- Xong với image stream- Hiện tại đang sửa origin_rm- Chỉ còn cnn-ff, pairwise</t>
   </si>
   <si>
-    <t>2. Đặt lại tên folder +
- tên model</t>
-  </si>
-  <si>
     <t>- XOng</t>
   </si>
   <si>
@@ -84,74 +70,46 @@
     <t>Deepfake</t>
   </si>
   <si>
-    <t>3. Train lại từng model
-xem có lỗi gì không</t>
-  </si>
-  <si>
     <t>- Xong</t>
   </si>
   <si>
     <t>Face2face</t>
   </si>
   <si>
-    <t>4. Fix eval</t>
-  </si>
-  <si>
     <t>FaceSwap</t>
   </si>
   <si>
     <t>Task 2:</t>
   </si>
   <si>
-    <t>Train với phase</t>
-  </si>
-  <si>
     <t>NeuralTextures</t>
   </si>
   <si>
     <t>Task 3:</t>
   </si>
   <si>
-    <t>Kết hợp phase +
- amplitude</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
     <t>Task 4:</t>
   </si>
   <si>
-    <t>Nghiên cứu distilation 
-loss</t>
-  </si>
-  <si>
     <t>Quan trọng</t>
   </si>
   <si>
     <t>Task 5:</t>
   </si>
   <si>
-    <t>Đổi loss của contrastive loss</t>
-  </si>
-  <si>
     <t>Deep_fake_in_the_wild</t>
   </si>
   <si>
     <t>Task 6:</t>
   </si>
   <si>
-    <t>Đổi data =&gt; video, 
-train lại toàn bộ</t>
-  </si>
-  <si>
     <t>DFDC</t>
   </si>
   <si>
     <t>Task 7:</t>
-  </si>
-  <si>
-    <t>K-Fold</t>
   </si>
   <si>
     <t>Celeb-DF</t>
@@ -475,9 +433,6 @@
   <si>
     <t>X 8 - dual patch cnn ca vit
 X 8 - dual patch cnn ca vit</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>X 61</t>
@@ -1340,13 +1295,13 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
@@ -1355,7 +1310,7 @@
       <c r="R3" s="28"/>
       <c r="S3" s="29"/>
       <c r="T3" s="30" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="10">
@@ -1364,38 +1319,38 @@
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>10</v>
-      </c>
       <c r="I4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>10</v>
-      </c>
       <c r="K4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>9</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>10</v>
       </c>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>9</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>10</v>
       </c>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
@@ -1403,10 +1358,10 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="33">
@@ -1449,19 +1404,19 @@
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="33">
         <v>81512</v>
@@ -1497,17 +1452,17 @@
       </c>
       <c r="S6" s="29"/>
       <c r="T6" s="30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="33">
         <v>81512</v>
@@ -1543,17 +1498,17 @@
       </c>
       <c r="S7" s="29"/>
       <c r="T7" s="30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" s="33">
         <v>81512</v>
@@ -1589,17 +1544,17 @@
       </c>
       <c r="S8" s="29"/>
       <c r="T8" s="30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="10">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="33" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9" s="33">
         <v>81512</v>
@@ -1637,17 +1592,17 @@
       </c>
       <c r="S9" s="29"/>
       <c r="T9" s="30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="33" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E10" s="33">
         <v>81512</v>
@@ -1683,10 +1638,10 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="33">
@@ -1729,7 +1684,7 @@
       </c>
       <c r="S11" s="29"/>
       <c r="T11" s="30" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="10">
@@ -1785,10 +1740,10 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="36">
@@ -1807,7 +1762,7 @@
         <v>17508</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K14" s="28">
         <v>56817</v>
@@ -1833,10 +1788,10 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="36">
@@ -1855,7 +1810,7 @@
         <v>7905</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
@@ -1877,10 +1832,10 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="36">
@@ -1899,10 +1854,10 @@
         <v>10462</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -1922,7 +1877,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="34" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="36">
@@ -1994,7 +1949,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="1"/>
@@ -2011,28 +1966,28 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="1"/>
@@ -2041,28 +1996,28 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="3"/>
@@ -2078,31 +2033,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="3"/>
@@ -2118,25 +2073,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2154,25 +2109,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="10">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2190,31 +2145,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="10">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="3"/>
@@ -2230,31 +2185,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="10">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>159</v>
-      </c>
       <c r="D26" s="43" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E26" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>162</v>
-      </c>
       <c r="I26" s="23" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="3"/>
@@ -2577,7 +2532,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="95.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2608,58 +2563,52 @@
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="73.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2674,22 +2623,20 @@
       <c r="L4" s="1"/>
       <c r="M4" s="3"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>81512</v>
@@ -2714,20 +2661,18 @@
       <c r="L5" s="1"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <v>81512</v>
@@ -2752,9 +2697,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="4"/>
@@ -2763,7 +2706,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>81512</v>
@@ -2788,11 +2731,9 @@
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
       <c r="N7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="4"/>
@@ -2801,7 +2742,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>81512</v>
@@ -2826,20 +2767,18 @@
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>81512</v>
@@ -2864,11 +2803,9 @@
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
       <c r="N9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="4"/>
@@ -2887,24 +2824,22 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="46.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2">
@@ -2930,11 +2865,9 @@
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
       <c r="N11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="4"/>
@@ -2942,7 +2875,7 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2">
@@ -2970,11 +2903,9 @@
         <v>1500</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="4"/>
@@ -2982,7 +2913,7 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2">
@@ -3016,7 +2947,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="5">
@@ -3110,75 +3041,75 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3207,32 +3138,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="46.5">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="3"/>
       <c r="N21" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3241,39 +3172,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -3281,38 +3212,38 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="60">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="3"/>
       <c r="N23" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="4"/>
@@ -3340,58 +3271,58 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="46.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R25" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3433,27 +3364,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46.5" customFormat="1" s="10">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3465,86 +3396,84 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="134.25" customFormat="1" s="10">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="100.5" customFormat="1" s="10">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="3"/>
       <c r="N29" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="R29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5" customFormat="1" s="10">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="3"/>
       <c r="N30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="152">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>UADFV</t>
+  </si>
+  <si>
+    <t>Đang train:
+61: pairwise-triple-cnn-vit -dfdc
+8: triple-cnn-vit - wild
+8: triplewise-dual-cnn-vit - wild
+8: pairwise-dual-cnn-vit - wild
+8: triple-cnn-vit - dfdc</t>
   </si>
   <si>
     <t>mesonet4</t>
@@ -1295,13 +1303,13 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
@@ -1310,7 +1318,7 @@
       <c r="R3" s="28"/>
       <c r="S3" s="29"/>
       <c r="T3" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="10">
@@ -1358,7 +1366,7 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>26</v>
@@ -1410,7 +1418,7 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>14</v>
@@ -1458,7 +1466,7 @@
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="33" t="s">
@@ -1504,7 +1512,7 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="33" t="s">
@@ -1550,7 +1558,7 @@
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="10">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="33" t="s">
@@ -1598,7 +1606,7 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="33" t="s">
@@ -1638,7 +1646,7 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>28</v>
@@ -1684,7 +1692,7 @@
       </c>
       <c r="S11" s="29"/>
       <c r="T11" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="10">
@@ -1740,7 +1748,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>30</v>
@@ -1762,7 +1770,7 @@
         <v>17508</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K14" s="28">
         <v>56817</v>
@@ -1788,7 +1796,7 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>31</v>
@@ -1810,7 +1818,7 @@
         <v>7905</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
@@ -1832,10 +1840,10 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="36">
@@ -1854,10 +1862,10 @@
         <v>10462</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -1949,7 +1957,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="1"/>
@@ -1966,28 +1974,28 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="1"/>
@@ -1996,28 +2004,28 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>32</v>
-      </c>
       <c r="D21" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="3"/>
@@ -2033,31 +2041,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="H22" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>135</v>
-      </c>
       <c r="I22" s="44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="3"/>
@@ -2073,25 +2081,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>136</v>
-      </c>
       <c r="F23" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2109,25 +2117,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="10">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2145,31 +2153,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="10">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="3"/>
@@ -2185,31 +2193,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="10">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="3"/>
@@ -2501,7 +2509,7 @@
     <col min="7" max="7" style="12" width="20.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="12" width="15.147857142857141" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="35.005" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="11" width="10.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="13" width="13.43357142857143" customWidth="1" bestFit="1"/>
@@ -2532,7 +2540,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="73.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2978,7 +2986,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="155.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2988,7 +2996,9 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="3"/>
@@ -3041,75 +3051,75 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3138,32 +3148,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="46.5">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="3"/>
       <c r="N21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3172,39 +3182,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -3212,38 +3222,38 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="60">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="3"/>
       <c r="N23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="4"/>
@@ -3271,58 +3281,58 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="46.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R25" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3364,27 +3374,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46.5" customFormat="1" s="10">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3398,82 +3408,82 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="100.5" customFormat="1" s="10">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="3"/>
       <c r="N29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5" customFormat="1" s="10">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="3"/>
       <c r="N30" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -40,7 +40,7 @@
 2. dual-dab với ifft
 3. thêm phase	V:oke
 4. multi-scale vit.
-5. Tripletloss</t>
+5. Tripletloss V:oke</t>
   </si>
   <si>
     <t>Tiến độ</t>
@@ -2986,7 +2986,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="155.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="87">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -36,11 +36,13 @@
     <t>Step</t>
   </si>
   <si>
-    <t>Task 1: 1. K-Fold: chia K phần cho từng class, gộp lại
+    <t xml:space="preserve">Task 1: 1. K-Fold: chia K phần cho từng class, gộp lại. V:oke
 2. dual-dab với ifft
 3. thêm phase	V:oke
 4. multi-scale vit.
-5. Tripletloss V:oke</t>
+5. Tripletloss V:oke
+6. triple_cnn_vit không dùng freq attention
+</t>
   </si>
   <si>
     <t>Tiến độ</t>
@@ -2540,7 +2542,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="73.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="147.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -39,9 +39,9 @@
     <t xml:space="preserve">Task 1: 1. K-Fold: chia K phần cho từng class, gộp lại. V:oke
 2. dual-dab với ifft
 3. thêm phase	V:oke
-4. multi-scale vit.
+4. multi-scale vit =====&gt;&gt;&gt; mai
 5. Tripletloss V:oke
-6. triple_cnn_vit không dùng freq attention
+6. triple_cnn_vit không dùng freq attention V:oke
 </t>
   </si>
   <si>
@@ -2542,7 +2542,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="147.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="93">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="153">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>source: https://github.com/clpeng/Awesome-Face-Forgery-Generation-and-Detection</t>
   </si>
   <si>
     <t>- Xong với image stream- Hiện tại đang sửa origin_rm- Chỉ còn cnn-ff, pairwise</t>
@@ -1305,13 +1308,13 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
@@ -1320,7 +1323,7 @@
       <c r="R3" s="28"/>
       <c r="S3" s="29"/>
       <c r="T3" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="10">
@@ -1368,10 +1371,10 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="33">
@@ -1414,19 +1417,19 @@
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="33">
         <v>81512</v>
@@ -1462,17 +1465,17 @@
       </c>
       <c r="S6" s="29"/>
       <c r="T6" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="33">
         <v>81512</v>
@@ -1508,17 +1511,17 @@
       </c>
       <c r="S7" s="29"/>
       <c r="T7" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="33">
         <v>81512</v>
@@ -1554,17 +1557,17 @@
       </c>
       <c r="S8" s="29"/>
       <c r="T8" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="10">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="33">
         <v>81512</v>
@@ -1602,17 +1605,17 @@
       </c>
       <c r="S9" s="29"/>
       <c r="T9" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="33">
         <v>81512</v>
@@ -1648,10 +1651,10 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="33">
@@ -1694,7 +1697,7 @@
       </c>
       <c r="S11" s="29"/>
       <c r="T11" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="10">
@@ -1750,10 +1753,10 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="36">
@@ -1772,7 +1775,7 @@
         <v>17508</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K14" s="28">
         <v>56817</v>
@@ -1798,10 +1801,10 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="36">
@@ -1820,7 +1823,7 @@
         <v>7905</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
@@ -1842,10 +1845,10 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="36">
@@ -1864,10 +1867,10 @@
         <v>10462</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -1887,7 +1890,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="36">
@@ -1959,7 +1962,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="1"/>
@@ -1976,28 +1979,28 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="1"/>
@@ -2006,28 +2009,28 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="D21" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="3"/>
@@ -2043,31 +2046,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E22" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="H22" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>136</v>
-      </c>
       <c r="I22" s="44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="3"/>
@@ -2083,25 +2086,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C23" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>137</v>
-      </c>
       <c r="F23" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2119,25 +2122,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="10">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2155,31 +2158,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="10">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="3"/>
@@ -2195,31 +2198,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="10">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="3"/>
@@ -2542,7 +2545,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="93">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="124.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2610,12 +2613,14 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -2637,16 +2642,16 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>81512</v>
@@ -2675,14 +2680,14 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>81512</v>
@@ -2716,7 +2721,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>81512</v>
@@ -2741,7 +2746,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
       <c r="N7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -2752,7 +2757,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>81512</v>
@@ -2777,7 +2782,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2788,7 +2793,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
         <v>81512</v>
@@ -2813,7 +2818,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
       <c r="N9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2834,22 +2839,22 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="46.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2">
@@ -2875,7 +2880,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
       <c r="N11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2885,7 +2890,7 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2">
@@ -2913,7 +2918,7 @@
         <v>1500</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2923,7 +2928,7 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2">
@@ -2957,7 +2962,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="5">
@@ -2999,7 +3004,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3053,75 +3058,75 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3150,32 +3155,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="46.5">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="3"/>
       <c r="N21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3184,39 +3189,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -3224,38 +3229,38 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="60">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="3"/>
       <c r="N23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="4"/>
@@ -3283,58 +3288,58 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="46.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R25" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3376,27 +3381,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46.5" customFormat="1" s="10">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3410,82 +3415,82 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="100.5" customFormat="1" s="10">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="3"/>
       <c r="N29" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5" customFormat="1" s="10">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="3"/>
       <c r="N30" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -84,7 +84,7 @@
     <t>FaceSwap</t>
   </si>
   <si>
-    <t>Task 2:</t>
+    <t>Task 2: THay vanilla attention =&gt; kNN attention</t>
   </si>
   <si>
     <t>NeuralTextures</t>
@@ -2545,7 +2545,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="124.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2993,7 +2993,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="87">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="125.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -60,7 +60,8 @@
     <t>test</t>
   </si>
   <si>
-    <t>source: https://github.com/clpeng/Awesome-Face-Forgery-Generation-and-Detection</t>
+    <t>source: https://github.com/clpeng/Awesome-Face-Forgery-Generation-and-Detection
+https://openaccess.thecvf.com/content/CVPR2021/papers/Liu_Spatial-Phase_Shallow_Learning_Rethinking_Face_Forgery_Detection_in_Frequency_Domain_CVPR_2021_paper.pdf</t>
   </si>
   <si>
     <t>- Xong với image stream- Hiện tại đang sửa origin_rm- Chỉ còn cnn-ff, pairwise</t>
@@ -2993,7 +2994,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="125.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="87">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="154">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Tiến độ</t>
+  </si>
+  <si>
+    <t>fix</t>
   </si>
   <si>
     <t>real</t>
@@ -1309,13 +1312,13 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
@@ -1324,7 +1327,7 @@
       <c r="R3" s="28"/>
       <c r="S3" s="29"/>
       <c r="T3" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="10">
@@ -1333,38 +1336,38 @@
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>8</v>
-      </c>
       <c r="H4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>8</v>
-      </c>
       <c r="J4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>8</v>
-      </c>
       <c r="L4" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
@@ -1372,10 +1375,10 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="33">
@@ -1418,19 +1421,19 @@
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="33">
         <v>81512</v>
@@ -1466,17 +1469,17 @@
       </c>
       <c r="S6" s="29"/>
       <c r="T6" s="30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="33">
         <v>81512</v>
@@ -1512,17 +1515,17 @@
       </c>
       <c r="S7" s="29"/>
       <c r="T7" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="33">
         <v>81512</v>
@@ -1558,17 +1561,17 @@
       </c>
       <c r="S8" s="29"/>
       <c r="T8" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="10">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="33">
         <v>81512</v>
@@ -1606,17 +1609,17 @@
       </c>
       <c r="S9" s="29"/>
       <c r="T9" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="33">
         <v>81512</v>
@@ -1652,10 +1655,10 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="33">
@@ -1698,7 +1701,7 @@
       </c>
       <c r="S11" s="29"/>
       <c r="T11" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="10">
@@ -1754,10 +1757,10 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="36">
@@ -1776,7 +1779,7 @@
         <v>17508</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K14" s="28">
         <v>56817</v>
@@ -1802,10 +1805,10 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="36">
@@ -1824,7 +1827,7 @@
         <v>7905</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
@@ -1846,10 +1849,10 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="36">
@@ -1868,10 +1871,10 @@
         <v>10462</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -1891,7 +1894,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="36">
@@ -1963,7 +1966,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="1"/>
@@ -1980,28 +1983,28 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="1"/>
@@ -2010,28 +2013,28 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="3"/>
@@ -2047,31 +2050,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E22" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="H22" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>137</v>
-      </c>
       <c r="I22" s="44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="3"/>
@@ -2087,25 +2090,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="10">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>138</v>
-      </c>
       <c r="F23" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
@@ -2123,25 +2126,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="10">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2159,31 +2162,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="10">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="3"/>
@@ -2199,31 +2202,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="10">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="3"/>
@@ -2584,44 +2587,46 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
       <c r="N3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -2643,16 +2648,16 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>81512</v>
@@ -2681,14 +2686,14 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>81512</v>
@@ -2722,7 +2727,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>81512</v>
@@ -2747,7 +2752,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
       <c r="N7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -2758,7 +2763,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>81512</v>
@@ -2783,7 +2788,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2794,7 +2799,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>81512</v>
@@ -2819,7 +2824,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
       <c r="N9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2840,22 +2845,22 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="46.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2">
@@ -2881,7 +2886,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
       <c r="N11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2891,7 +2896,7 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2">
@@ -2919,7 +2924,7 @@
         <v>1500</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2929,7 +2934,7 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2">
@@ -2963,7 +2968,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="5">
@@ -3005,7 +3010,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3059,75 +3064,75 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3156,32 +3161,32 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="46.5">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="3"/>
       <c r="N21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3190,39 +3195,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -3230,38 +3235,38 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="60">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="3"/>
       <c r="N23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="4"/>
@@ -3289,58 +3294,58 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="46.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R25" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3382,27 +3387,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="46.5" customFormat="1" s="10">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3416,82 +3421,82 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="100.5" customFormat="1" s="10">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="3"/>
       <c r="N29" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="46.5" customFormat="1" s="10">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="3"/>
       <c r="N30" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -64,7 +64,8 @@
   </si>
   <si>
     <t>source: https://github.com/clpeng/Awesome-Face-Forgery-Generation-and-Detection
-https://openaccess.thecvf.com/content/CVPR2021/papers/Liu_Spatial-Phase_Shallow_Learning_Rethinking_Face_Forgery_Detection_in_Frequency_Domain_CVPR_2021_paper.pdf</t>
+https://openaccess.thecvf.com/content/CVPR2021/papers/Liu_Spatial-Phase_Shallow_Learning_Rethinking_Face_Forgery_Detection_in_Frequency_Domain_CVPR_2021_paper.pdf
+https://thepythoncodingbook.com/2021/08/30/2d-fourier-transform-in-python-and-fourier-synthesis-of-images/</t>
   </si>
   <si>
     <t>- Xong với image stream- Hiện tại đang sửa origin_rm- Chỉ còn cnn-ff, pairwise</t>

--- a/my_thesis/dataset.xlsx
+++ b/my_thesis/dataset.xlsx
@@ -2588,7 +2588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
